--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9311_FieldNotFound.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9311_FieldNotFound.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-12016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-9311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AB72A-025B-4274-9022-92E6C8AD90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1982F-B916-418B-899E-CAB8CB087F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="6990" windowWidth="23850" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9970" yWindow="870" windowWidth="25130" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Datatype Rider</t>
   </si>
@@ -40,196 +40,169 @@
     <t>limit</t>
   </si>
   <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>=limit</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
-    <t>= spr(rider)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr (Rider rider)</t>
-  </si>
-  <si>
-    <t>SmartRules SpreadsheetResult dt (Rider rider)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr2 (Rider rider)</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>= spr2(rider)</t>
-  </si>
-  <si>
-    <t>= rIder</t>
-  </si>
-  <si>
-    <t>= limiT</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr2 (Rider rider, SpreadsheetResultspr spr)</t>
-  </si>
-  <si>
-    <t>= $sr</t>
-  </si>
-  <si>
-    <t>sr1</t>
-  </si>
-  <si>
     <t>step1</t>
   </si>
   <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>SmartRules SpreadsheetResult dt1 (Integer a)</t>
+  </si>
+  <si>
+    <t>= spr1()</t>
+  </si>
+  <si>
+    <t>= spr2()</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult spr1 ()</t>
+  </si>
+  <si>
+    <t>spr1Step1</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult spr2 ()</t>
+  </si>
+  <si>
+    <t>spr2Step1</t>
+  </si>
+  <si>
+    <t>spr2Step2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult Main ()</t>
+  </si>
+  <si>
+    <t>= dt1(0)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult spr3 ()</t>
+  </si>
+  <si>
+    <t>spr3Step1</t>
+  </si>
+  <si>
+    <t>spr3Step2</t>
+  </si>
+  <si>
+    <t>=$step1.$spr3Step1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>RET1</t>
+  </si>
+  <si>
+    <t>SpreadsheetResult spr</t>
+  </si>
+  <si>
+    <t>spr.$spr3Step1 == a</t>
+  </si>
+  <si>
+    <t>Rules Integer dt2 (String a)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>SpreadsheetResult x</t>
+  </si>
+  <si>
+    <t>x.$spr3Step1</t>
+  </si>
+  <si>
+    <t>Rules String dt3 (Integer a)</t>
+  </si>
+  <si>
+    <t>Rules SpreadsheetResult dt4 (Integer a)</t>
+  </si>
+  <si>
+    <t>sprStep</t>
+  </si>
+  <si>
+    <t>= spr3()</t>
+  </si>
+  <si>
+    <t>x.$sprStep</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult CheckDt4 ()</t>
+  </si>
+  <si>
+    <t>= dt4(0)</t>
+  </si>
+  <si>
+    <t>= $step1.$spr2Step1</t>
+  </si>
+  <si>
+    <t>SmartRules Collect SpreadsheetResult[] dt5 (Integer a)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult CheckDt5 ()</t>
+  </si>
+  <si>
+    <t>= dt5(0)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult spr4 ()</t>
+  </si>
+  <si>
+    <t>spr4Step1</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>= spr5()</t>
+  </si>
+  <si>
+    <t>= $step1.$spr3Step1</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult CheckSpr4 ()</t>
+  </si>
+  <si>
+    <t>= spr4()</t>
+  </si>
+  <si>
+    <t>= spr4().$spr4Step1</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>= $step1</t>
-  </si>
-  <si>
-    <t>= $sTep1</t>
-  </si>
-  <si>
-    <t>= rider.limiT</t>
-  </si>
-  <si>
-    <t>= spr.$sTep1</t>
-  </si>
-  <si>
-    <t>= spr.$step1</t>
-  </si>
-  <si>
-    <t>Step3</t>
-  </si>
-  <si>
-    <t>= $sR</t>
-  </si>
-  <si>
-    <t>= new Rider()</t>
-  </si>
-  <si>
-    <t>= new RideR()</t>
-  </si>
-  <si>
-    <t>= Rider marat = new Rider(); MARAT</t>
-  </si>
-  <si>
-    <t>= Rider marat = new Rider(); marat</t>
-  </si>
-  <si>
-    <t>= new Rider[]  {}</t>
-  </si>
-  <si>
-    <t>= $sr[(x) select first having x.limit == 0)</t>
-  </si>
-  <si>
-    <t>= $sr[(x) select first having x.limit == 0]</t>
-  </si>
-  <si>
-    <t>= $sr[(x) select first having X.limit == 0]</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr3 (Rider rider)</t>
-  </si>
-  <si>
-    <t>= dt(rider)</t>
-  </si>
-  <si>
-    <t>ste</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>=$step1.$step4</t>
-  </si>
-  <si>
-    <t>=$step1.$step3</t>
-  </si>
-  <si>
-    <t>=$step1.$Step3</t>
-  </si>
-  <si>
-    <t>SmartRules SpreadsheetResult dt (Integer a)</t>
-  </si>
-  <si>
-    <t>SmartRules SpreadsheetResult dt1 (Integer a)</t>
-  </si>
-  <si>
-    <t>= spr1()</t>
-  </si>
-  <si>
-    <t>= spr2()</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr1 ()</t>
-  </si>
-  <si>
-    <t>spr1Step1</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr2 ()</t>
-  </si>
-  <si>
-    <t>spr2Step1</t>
-  </si>
-  <si>
-    <t>spr2Step2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult Main ()</t>
-  </si>
-  <si>
-    <t>= dt1(rider)</t>
-  </si>
-  <si>
-    <t>=$step1.$spr1Step1</t>
-  </si>
-  <si>
-    <t>= dt1()</t>
-  </si>
-  <si>
-    <t>= dt1(0)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult spr3 ()</t>
-  </si>
-  <si>
-    <t>spr3Step1</t>
-  </si>
-  <si>
-    <t>spr3Step2</t>
-  </si>
-  <si>
-    <t>=$step1.$spr3Step1</t>
+    <t>= $step1.$spr1Step1</t>
+  </si>
+  <si>
+    <t>step5</t>
   </si>
 </sst>
 </file>
@@ -282,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -340,11 +313,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,7 +338,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -697,178 +704,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:H32"/>
+  <dimension ref="A2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.36328125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="2:8">
-      <c r="B8" s="4" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="5" customFormat="1" ht="13" thickTop="1">
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="13" thickTop="1">
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="2:10" ht="13">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:10" ht="13">
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" s="5" customFormat="1">
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="5" customFormat="1">
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="5" customFormat="1">
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="2:3" s="5" customFormat="1">
+      <c r="B54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" s="5" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="13" thickTop="1"/>
+    <row r="83" spans="2:3">
+      <c r="B83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="13" thickTop="1"/>
+    <row r="99" spans="1:7">
+      <c r="B99" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="1:7" ht="13" thickBot="1">
+      <c r="B100" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14" thickTop="1" thickBot="1">
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:7" ht="13" thickTop="1">
+      <c r="A102" s="5"/>
+      <c r="B102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="5"/>
+      <c r="B107" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" ht="13" thickBot="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" ht="14" thickTop="1" thickBot="1">
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="1:7" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="1:7" ht="13" thickTop="1"/>
+    <row r="114" spans="2:3">
+      <c r="B114" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="13" thickTop="1">
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="117" spans="2:3" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="13" thickTop="1">
+      <c r="B118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
+  <mergeCells count="12">
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
